--- a/examples/SAM/echo/MIDI Mappings Echo.xlsx
+++ b/examples/SAM/echo/MIDI Mappings Echo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="2880" windowWidth="25600" windowHeight="18700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="By Module" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Function</t>
   </si>
@@ -86,7 +86,16 @@
     <t>knob</t>
   </si>
   <si>
-    <t>switch</t>
+    <t>switch (SW-4)</t>
+  </si>
+  <si>
+    <t>knob (HADC-0)</t>
+  </si>
+  <si>
+    <t>knob (HADC-1)</t>
+  </si>
+  <si>
+    <t>knob (HADC-2)</t>
   </si>
 </sst>
 </file>
@@ -276,12 +285,28 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -423,15 +448,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -499,6 +524,13 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -566,6 +598,13 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -895,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -906,7 +945,8 @@
     <col min="1" max="1" width="29.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="15.1640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="16" thickBot="1">
@@ -924,106 +964,100 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>105</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>105</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="1:4" ht="16" thickBot="1">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
-        <v>60</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:4" ht="16" thickBot="1">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
-        <v>61</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>62</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9">
-        <v>75</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="A8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10">
+        <v>76</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11">
-        <v>76</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
